--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H2">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I2">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J2">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N2">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O2">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P2">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q2">
-        <v>39.565792348665</v>
+        <v>39.6395284561605</v>
       </c>
       <c r="R2">
-        <v>158.26316939466</v>
+        <v>158.558113824642</v>
       </c>
       <c r="S2">
-        <v>0.005827141114071211</v>
+        <v>0.003015158027149295</v>
       </c>
       <c r="T2">
-        <v>0.003091779683353925</v>
+        <v>0.001568753960203297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H3">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I3">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J3">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O3">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P3">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q3">
-        <v>82.177430694348</v>
+        <v>57.271983589161</v>
       </c>
       <c r="R3">
-        <v>493.064584166088</v>
+        <v>343.631901534966</v>
       </c>
       <c r="S3">
-        <v>0.01210286605226876</v>
+        <v>0.0043563606272613</v>
       </c>
       <c r="T3">
-        <v>0.009632355207701908</v>
+        <v>0.003399850650225055</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H4">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I4">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J4">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N4">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O4">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P4">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q4">
-        <v>8.663256603826001</v>
+        <v>10.994891214672</v>
       </c>
       <c r="R4">
-        <v>51.97953962295601</v>
+        <v>65.969347288032</v>
       </c>
       <c r="S4">
-        <v>0.001275900613667522</v>
+        <v>0.0008363201025515579</v>
       </c>
       <c r="T4">
-        <v>0.00101545599757064</v>
+        <v>0.000652692393431103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H5">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I5">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J5">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N5">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O5">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P5">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q5">
-        <v>58.114633395555</v>
+        <v>16.97349343544775</v>
       </c>
       <c r="R5">
-        <v>232.45853358222</v>
+        <v>67.89397374179099</v>
       </c>
       <c r="S5">
-        <v>0.008558963424874786</v>
+        <v>0.001291079056030054</v>
       </c>
       <c r="T5">
-        <v>0.004541237067984587</v>
+        <v>0.0006717344045803124</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H6">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I6">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J6">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N6">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O6">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P6">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q6">
-        <v>27.835176094308</v>
+        <v>15.2432829393465</v>
       </c>
       <c r="R6">
-        <v>167.011056565848</v>
+        <v>91.459697636079</v>
       </c>
       <c r="S6">
-        <v>0.004099488204538056</v>
+        <v>0.001159471585680167</v>
       </c>
       <c r="T6">
-        <v>0.003262675665859529</v>
+        <v>0.0009048907016154019</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H7">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I7">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J7">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N7">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O7">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P7">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q7">
-        <v>25.091776517258</v>
+        <v>4.351423985232</v>
       </c>
       <c r="R7">
-        <v>150.550659103548</v>
+        <v>26.108543911392</v>
       </c>
       <c r="S7">
-        <v>0.003695447857591914</v>
+        <v>0.0003309885730127344</v>
       </c>
       <c r="T7">
-        <v>0.002941110499127903</v>
+        <v>0.0002583146372530353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J8">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N8">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O8">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P8">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q8">
-        <v>104.0578163361692</v>
+        <v>149.586931643079</v>
       </c>
       <c r="R8">
-        <v>624.346898017015</v>
+        <v>897.5215898584739</v>
       </c>
       <c r="S8">
-        <v>0.01532534909119346</v>
+        <v>0.01137824427450188</v>
       </c>
       <c r="T8">
-        <v>0.01219704535197552</v>
+        <v>0.008879965297869358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J9">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O9">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P9">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q9">
         <v>216.1261908978114</v>
@@ -1013,10 +1013,10 @@
         <v>1945.135718080302</v>
       </c>
       <c r="S9">
-        <v>0.03183047117343357</v>
+        <v>0.01643951491712211</v>
       </c>
       <c r="T9">
-        <v>0.03799956185339508</v>
+        <v>0.01924492722110778</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J10">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N10">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O10">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P10">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q10">
-        <v>22.78431723570545</v>
+        <v>41.491211036256</v>
       </c>
       <c r="R10">
-        <v>205.058855121349</v>
+        <v>373.420899326304</v>
       </c>
       <c r="S10">
-        <v>0.003355611598783015</v>
+        <v>0.003156005201990998</v>
       </c>
       <c r="T10">
-        <v>0.004005965535638987</v>
+        <v>0.003694579233508607</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J11">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N11">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O11">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P11">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q11">
-        <v>152.8411663041675</v>
+        <v>64.05254807913784</v>
       </c>
       <c r="R11">
-        <v>917.046997825005</v>
+        <v>384.315288474827</v>
       </c>
       <c r="S11">
-        <v>0.02251002674848898</v>
+        <v>0.004872120381395806</v>
       </c>
       <c r="T11">
-        <v>0.01791514278022369</v>
+        <v>0.003802366944326375</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J12">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N12">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O12">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P12">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q12">
-        <v>73.20636008453799</v>
+        <v>57.52328576728478</v>
       </c>
       <c r="R12">
-        <v>658.8572407608419</v>
+        <v>517.7095719055629</v>
       </c>
       <c r="S12">
-        <v>0.01078163143811036</v>
+        <v>0.00437547578349854</v>
       </c>
       <c r="T12">
-        <v>0.01287122859352853</v>
+        <v>0.005122153143548467</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J13">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N13">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O13">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P13">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q13">
-        <v>65.99123428066855</v>
+        <v>16.42088560535822</v>
       </c>
       <c r="R13">
-        <v>593.921108526017</v>
+        <v>147.787970448224</v>
       </c>
       <c r="S13">
-        <v>0.009719007547138484</v>
+        <v>0.001249045257958951</v>
       </c>
       <c r="T13">
-        <v>0.01160265666281885</v>
+        <v>0.001462195521368695</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H14">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I14">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J14">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N14">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O14">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P14">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q14">
-        <v>655.8693042211426</v>
+        <v>1674.489835875171</v>
       </c>
       <c r="R14">
-        <v>3935.215825326855</v>
+        <v>10046.93901525103</v>
       </c>
       <c r="S14">
-        <v>0.09659462786452329</v>
+        <v>0.1273691102456662</v>
       </c>
       <c r="T14">
-        <v>0.07687714320959974</v>
+        <v>0.09940314618983928</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H15">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I15">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J15">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O15">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P15">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q15">
-        <v>1362.228609431646</v>
+        <v>2419.336408265356</v>
       </c>
       <c r="R15">
-        <v>12260.05748488482</v>
+        <v>21774.0276743882</v>
       </c>
       <c r="S15">
-        <v>0.2006252842564654</v>
+        <v>0.1840254381386856</v>
       </c>
       <c r="T15">
-        <v>0.2395086411671285</v>
+        <v>0.2154294808372277</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H16">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I16">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J16">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N16">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O16">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P16">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q16">
-        <v>143.607994273677</v>
+        <v>464.4564227317441</v>
       </c>
       <c r="R16">
-        <v>1292.471948463093</v>
+        <v>4180.107804585697</v>
       </c>
       <c r="S16">
-        <v>0.02115019055772004</v>
+        <v>0.03532861176210644</v>
       </c>
       <c r="T16">
-        <v>0.02524932697131923</v>
+        <v>0.04135745887954296</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H17">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I17">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J17">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N17">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O17">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P17">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q17">
-        <v>963.3474248240475</v>
+        <v>717.0100993604038</v>
       </c>
       <c r="R17">
-        <v>5780.084548944285</v>
+        <v>4302.060596162423</v>
       </c>
       <c r="S17">
-        <v>0.1418791600799634</v>
+        <v>0.05453896251628211</v>
       </c>
       <c r="T17">
-        <v>0.1129179204792095</v>
+        <v>0.04256404440285096</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H18">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I18">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J18">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N18">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O18">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P18">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q18">
-        <v>461.414684103066</v>
+        <v>643.9209380488543</v>
       </c>
       <c r="R18">
-        <v>4152.732156927594</v>
+        <v>5795.288442439688</v>
       </c>
       <c r="S18">
-        <v>0.06795588605124642</v>
+        <v>0.04897947732538602</v>
       </c>
       <c r="T18">
-        <v>0.08112647410201852</v>
+        <v>0.05733785219375345</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H19">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I19">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J19">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N19">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O19">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P19">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q19">
-        <v>415.938239300841</v>
+        <v>183.8168999137529</v>
       </c>
       <c r="R19">
-        <v>3743.444153707569</v>
+        <v>1654.352099223776</v>
       </c>
       <c r="S19">
-        <v>0.06125824029468982</v>
+        <v>0.01398192720464905</v>
       </c>
       <c r="T19">
-        <v>0.0731307519271354</v>
+        <v>0.01636795080760224</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H20">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I20">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J20">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N20">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O20">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P20">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q20">
-        <v>66.50857441659375</v>
+        <v>149.007249351513</v>
       </c>
       <c r="R20">
-        <v>266.034297666375</v>
+        <v>596.028997406052</v>
       </c>
       <c r="S20">
-        <v>0.009795199979971456</v>
+        <v>0.01133415107302638</v>
       </c>
       <c r="T20">
-        <v>0.005197162673705317</v>
+        <v>0.005897035651615011</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H21">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I21">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J21">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O21">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P21">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q21">
-        <v>138.137098747725</v>
+        <v>215.288654328066</v>
       </c>
       <c r="R21">
-        <v>828.82259248635</v>
+        <v>1291.731925968396</v>
       </c>
       <c r="S21">
-        <v>0.02034445210645562</v>
+        <v>0.01637580817767157</v>
       </c>
       <c r="T21">
-        <v>0.01619161844385817</v>
+        <v>0.01278023259424661</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H22">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I22">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J22">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N22">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O22">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P22">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q22">
-        <v>14.5626009823875</v>
+        <v>41.33042345923201</v>
       </c>
       <c r="R22">
-        <v>87.37560589432501</v>
+        <v>247.982540755392</v>
       </c>
       <c r="S22">
-        <v>0.002144739833957786</v>
+        <v>0.003143774987041141</v>
       </c>
       <c r="T22">
-        <v>0.001706942456404064</v>
+        <v>0.002453507950413304</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H23">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I23">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J23">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N23">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O23">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P23">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q23">
-        <v>97.68846244303124</v>
+        <v>63.8043303542115</v>
       </c>
       <c r="R23">
-        <v>390.753849772125</v>
+        <v>255.217321416846</v>
       </c>
       <c r="S23">
-        <v>0.01438728816185064</v>
+        <v>0.004853239842324306</v>
       </c>
       <c r="T23">
-        <v>0.007633644761056777</v>
+        <v>0.002525087956885949</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H24">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I24">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J24">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N24">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O24">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P24">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q24">
-        <v>46.78985989597499</v>
+        <v>57.30037037122901</v>
       </c>
       <c r="R24">
-        <v>280.73915937585</v>
+        <v>343.802222227374</v>
       </c>
       <c r="S24">
-        <v>0.006891081920432391</v>
+        <v>0.004358519851579821</v>
       </c>
       <c r="T24">
-        <v>0.005484432244091019</v>
+        <v>0.003401535781652735</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H25">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I25">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J25">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N25">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O25">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P25">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q25">
-        <v>42.1783107750375</v>
+        <v>16.357251058592</v>
       </c>
       <c r="R25">
-        <v>253.069864650225</v>
+        <v>98.14350635155201</v>
       </c>
       <c r="S25">
-        <v>0.00621190564499302</v>
+        <v>0.001244204932607998</v>
       </c>
       <c r="T25">
-        <v>0.004943893572885149</v>
+        <v>0.0009710194612147738</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H26">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I26">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J26">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N26">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O26">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P26">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q26">
-        <v>19.75043050541583</v>
+        <v>628.713940081332</v>
       </c>
       <c r="R26">
-        <v>118.502583032495</v>
+        <v>3772.283640487992</v>
       </c>
       <c r="S26">
-        <v>0.002908789102579367</v>
+        <v>0.04782276573530424</v>
       </c>
       <c r="T26">
-        <v>0.00231502932770909</v>
+        <v>0.03732249808780173</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H27">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I27">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J27">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O27">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P27">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q27">
-        <v>41.02128474364067</v>
+        <v>908.3784762585575</v>
       </c>
       <c r="R27">
-        <v>369.1915626927661</v>
+        <v>8175.406286327017</v>
       </c>
       <c r="S27">
-        <v>0.006041502032241143</v>
+        <v>0.06909528849238805</v>
       </c>
       <c r="T27">
-        <v>0.007212410677513547</v>
+        <v>0.08088643765105913</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H28">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I28">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J28">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N28">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O28">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P28">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q28">
-        <v>4.324519675901889</v>
+        <v>174.387578398848</v>
       </c>
       <c r="R28">
-        <v>38.92067708311701</v>
+        <v>1569.488205589632</v>
       </c>
       <c r="S28">
-        <v>0.0006369033679394536</v>
+        <v>0.01326469126457776</v>
       </c>
       <c r="T28">
-        <v>0.000760342151166474</v>
+        <v>0.01552831815806107</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H29">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I29">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J29">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N29">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O29">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P29">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q29">
-        <v>29.0096307970275</v>
+        <v>269.2128880026194</v>
       </c>
       <c r="R29">
-        <v>174.057784782165</v>
+        <v>1615.277328015716</v>
       </c>
       <c r="S29">
-        <v>0.004272458664083573</v>
+        <v>0.02047752412521421</v>
       </c>
       <c r="T29">
-        <v>0.003400338340104324</v>
+        <v>0.01598134995446346</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H30">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I30">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J30">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N30">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O30">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P30">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q30">
-        <v>13.894747922954</v>
+        <v>241.7703956082671</v>
       </c>
       <c r="R30">
-        <v>125.052731306586</v>
+        <v>2175.933560474404</v>
       </c>
       <c r="S30">
-        <v>0.002046380271573981</v>
+        <v>0.01839012665984514</v>
       </c>
       <c r="T30">
-        <v>0.002442990971812709</v>
+        <v>0.02152841193550437</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H31">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I31">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J31">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N31">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O31">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P31">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q31">
-        <v>12.52529922804011</v>
+        <v>69.01698948677689</v>
       </c>
       <c r="R31">
-        <v>112.727693052361</v>
+        <v>621.152905380992</v>
       </c>
       <c r="S31">
-        <v>0.001844691632978749</v>
+        <v>0.005249737773517658</v>
       </c>
       <c r="T31">
-        <v>0.002202212886698369</v>
+        <v>0.006145608425223176</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H32">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I32">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J32">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N32">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O32">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P32">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q32">
-        <v>226.9029413947458</v>
+        <v>965.6391442522648</v>
       </c>
       <c r="R32">
-        <v>1361.417648368475</v>
+        <v>5793.834865513589</v>
       </c>
       <c r="S32">
-        <v>0.03341764135679255</v>
+        <v>0.07345078840536255</v>
       </c>
       <c r="T32">
-        <v>0.02659622855958774</v>
+        <v>0.05732347068716086</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H33">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I33">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J33">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O33">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P33">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q33">
-        <v>471.2732801227366</v>
+        <v>1395.174750472397</v>
       </c>
       <c r="R33">
-        <v>4241.45952110463</v>
+        <v>12556.57275425157</v>
       </c>
       <c r="S33">
-        <v>0.06940783296758764</v>
+        <v>0.1061231682615813</v>
       </c>
       <c r="T33">
-        <v>0.08285982408464161</v>
+        <v>0.1242331455620004</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H34">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I34">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J34">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N34">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O34">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P34">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q34">
-        <v>49.68227068835388</v>
+        <v>267.84116151696</v>
       </c>
       <c r="R34">
-        <v>447.140436195185</v>
+        <v>2410.57045365264</v>
       </c>
       <c r="S34">
-        <v>0.007317068229477532</v>
+        <v>0.02037318453578486</v>
       </c>
       <c r="T34">
-        <v>0.008735195443905542</v>
+        <v>0.02384987973367863</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H35">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I35">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J35">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N35">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O35">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P35">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q35">
-        <v>333.2773204521374</v>
+        <v>413.4829629495741</v>
       </c>
       <c r="R35">
-        <v>1999.663922712825</v>
+        <v>2480.897777697444</v>
       </c>
       <c r="S35">
-        <v>0.0490841674363603</v>
+        <v>0.03145134474053329</v>
       </c>
       <c r="T35">
-        <v>0.03906480777193339</v>
+        <v>0.02454568939894624</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H36">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I36">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J36">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N36">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O36">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P36">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q36">
-        <v>159.62989630997</v>
+        <v>371.3341522068005</v>
       </c>
       <c r="R36">
-        <v>1436.66906678973</v>
+        <v>3342.007369861205</v>
       </c>
       <c r="S36">
-        <v>0.02350985223866333</v>
+        <v>0.0282453195935283</v>
       </c>
       <c r="T36">
-        <v>0.02806631668879874</v>
+        <v>0.03306539898864243</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H37">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I37">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J37">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N37">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O37">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P37">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q37">
-        <v>143.8969766209561</v>
+        <v>106.0029091422044</v>
       </c>
       <c r="R37">
-        <v>1295.072789588605</v>
+        <v>954.0261822798399</v>
       </c>
       <c r="S37">
-        <v>0.02119275108329302</v>
+        <v>0.008063050567182584</v>
       </c>
       <c r="T37">
-        <v>0.0253001361885379</v>
+        <v>0.009439014601575913</v>
       </c>
     </row>
   </sheetData>
